--- a/Testcase All.xlsx
+++ b/Testcase All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Login Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
   <si>
     <t>Test ID</t>
   </si>
@@ -368,12 +368,6 @@
     <t>User is logged in</t>
   </si>
   <si>
-    <t>1. Open `info.html` after logging in</t>
-  </si>
-  <si>
-    <t>The form displays all fields: avatar, full name, phone, address, save &amp; back buttons</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -504,11 +498,6 @@
   </si>
   <si>
     <t>User is logged in and cart is empty</t>
-  </si>
-  <si>
-    <t>1. Navigate to product page
-2. Click 'Add to Cart' button for 'Royal Canin Cat Food'
-3. Navigate to cart page</t>
   </si>
   <si>
     <t>Product is added to cart
@@ -823,6 +812,42 @@
     <t>- Add product form is closed
 - No product is added
 - Admin returns to product list view</t>
+  </si>
+  <si>
+    <t>1. Click on the login button account: "hoyaly123@gmail.com", password: "hoyaly"
+2. Click on the check box
+3. Click on the login box
+4.. Click on the 'Person' button
+5. Click on "Personal information"
+6. Update name: 'Ngoc Nhi'
+7. Update phone number: '0123456789'
+8. Update address: 'Sao Hoa'
+9. Click on the 'Save information' button"</t>
+  </si>
+  <si>
+    <t>Display the message "Thông tin đã được lưu thành công!"</t>
+  </si>
+  <si>
+    <t>TC_CART_001 Verify adding product to empty cart User is logged in and cart is empty
+"1. Click on login button account: "hoyaly123@gmail.com", password: "hoyaly"
+2. Click on checkbox
+3. Click on login box
+4. Click on 'Add to cart' button for 'Hạt cho chó'
+5. Click on "Cart" on navigation bar to go to page "https://hoyaly.github.io/FastCat/cart.html"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click 'Add Product' button
+2. Click on check box
+3. Click on login box
+4.. Click on 'People' button
+5. Click on "Quản lý"
+6. Click on 'Thêm sản phẩm' button
+7. Enter product name in Product name box: 'Test test'
+8. Enter price in Price box: '250000'
+9. Click on "choose file" button in image, enter image URL: D:\Picture\Tùm lum\Mèow.jpg
+10. Click on 'Add' button"
+11. Return to home page and scroll down the page to check
+</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1783,16 +1808,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="41.90625" customWidth="1"/>
     <col min="3" max="3" width="36.1796875" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" customWidth="1"/>
+    <col min="5" max="5" width="73.453125" customWidth="1"/>
     <col min="6" max="6" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,7 +1841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>91</v>
       </c>
@@ -1826,91 +1851,91 @@
       <c r="C2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>78</v>
@@ -1918,102 +1943,102 @@
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2025,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2062,21 +2087,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>33</v>
@@ -2085,19 +2110,19 @@
     </row>
     <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -2106,19 +2131,19 @@
     </row>
     <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>33</v>
@@ -2127,19 +2152,19 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>33</v>
@@ -2148,19 +2173,19 @@
     </row>
     <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>33</v>
@@ -2169,19 +2194,19 @@
     </row>
     <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>33</v>
@@ -2190,19 +2215,19 @@
     </row>
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>33</v>
@@ -2211,19 +2236,19 @@
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>33</v>
@@ -2232,19 +2257,19 @@
     </row>
     <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
@@ -2253,19 +2278,19 @@
     </row>
     <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -2281,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2290,7 +2315,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="4" max="4" width="64.453125" customWidth="1"/>
     <col min="5" max="5" width="40" style="6" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
@@ -2319,21 +2344,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>33</v>
@@ -2342,19 +2367,19 @@
     </row>
     <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -2363,19 +2388,19 @@
     </row>
     <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>33</v>
@@ -2384,19 +2409,19 @@
     </row>
     <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>33</v>
@@ -2405,40 +2430,40 @@
     </row>
     <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>33</v>
@@ -2447,19 +2472,19 @@
     </row>
     <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>33</v>
@@ -2468,40 +2493,40 @@
     </row>
     <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
